--- a/AAII_Financials/Quarterly/ARIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>ARIS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,167 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>229300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>59500</v>
+      </c>
+      <c r="F8" s="3">
         <v>56600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>46200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>171500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>37600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>46400</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>151700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>38900</v>
+      </c>
+      <c r="F9" s="3">
         <v>37700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>35700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>139500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>30500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>38800</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20600</v>
+      </c>
+      <c r="F10" s="3">
         <v>18900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>10500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>32000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>7100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>7600</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +837,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +868,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +903,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>5500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>2400</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +973,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +989,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>210100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>72400</v>
+      </c>
+      <c r="F17" s="3">
         <v>44700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>40700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>163800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>36900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>45300</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="F18" s="3">
         <v>11900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>5500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>7700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,13 +1074,15 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1029,112 +1096,136 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>79500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F21" s="3">
         <v>27100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>20400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>51700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>11000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>10700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F22" s="3">
         <v>7300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>2700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>7700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1600</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F23" s="3">
         <v>4600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2800</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1145,17 +1236,23 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1280,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F26" s="3">
         <v>4600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2800</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F27" s="3">
         <v>4600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1385,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1420,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,13 +1490,19 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1377,46 +1516,58 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F33" s="3">
         <v>4600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1595,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F35" s="3">
         <v>4600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,23 +1704,25 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>36400</v>
+      </c>
+      <c r="F41" s="3">
         <v>31100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>21200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1562,8 +1735,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,23 +1770,29 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>57800</v>
+      </c>
+      <c r="F43" s="3">
         <v>47600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>35800</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1620,8 +1805,14 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,23 +1840,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3400</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1678,23 +1875,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>95500</v>
+      </c>
+      <c r="F46" s="3">
         <v>80800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>60400</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1707,8 +1910,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,23 +1945,29 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>633000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>631500</v>
+      </c>
+      <c r="F48" s="3">
         <v>650000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>635200</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1765,23 +1980,29 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>339500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>347700</v>
+      </c>
+      <c r="F49" s="3">
         <v>355800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>364000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1794,8 +2015,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,23 +2085,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,8 +2120,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,23 +2155,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1126700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1077500</v>
+      </c>
+      <c r="F54" s="3">
         <v>1088800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1062700</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1939,8 +2190,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,23 +2224,25 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F57" s="3">
         <v>10400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>14100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1994,8 +2255,14 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,23 +2290,29 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>47900</v>
+      </c>
+      <c r="F59" s="3">
         <v>39000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>33700</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,23 +2325,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>58000</v>
+      </c>
+      <c r="F60" s="3">
         <v>49400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>47800</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,23 +2360,29 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>392100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>391600</v>
+      </c>
+      <c r="F61" s="3">
         <v>391100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>297000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2110,23 +2395,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>83100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F62" s="3">
         <v>7000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>6800</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2139,8 +2430,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,23 +2535,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>913800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>457000</v>
+      </c>
+      <c r="F66" s="3">
         <v>447400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>351600</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2255,8 +2570,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2655,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2335,14 +2670,14 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>74400</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2355,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2725,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>-500</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,23 +2865,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>212900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>620600</v>
+      </c>
+      <c r="F76" s="3">
         <v>641300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>636700</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2900,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2935,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F81" s="3">
         <v>4600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3029,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F83" s="3">
         <v>15200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>15000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>44000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>10300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>9500</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3235,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>26500</v>
+      </c>
+      <c r="F89" s="3">
         <v>14100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>16600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>67800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>16300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>24600</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3289,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-74700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-22000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-20300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-139600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-41700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-50900</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3390,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-74700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-22000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-20300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-139600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-41700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-50900</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3475,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3580,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F100" s="3">
         <v>17800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>89700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>19600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>40000</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3650,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F102" s="3">
         <v>9900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>17800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-5800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>13700</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>ARIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E8" s="3">
         <v>229300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>59500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>56600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>46200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>171500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>37600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>46400</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E9" s="3">
         <v>151700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>38900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>37700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>35700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>139500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>30500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>38800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E10" s="3">
         <v>77600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>18900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>32000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7600</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,43 +926,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E14" s="3">
         <v>28500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>27400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2400</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E17" s="3">
         <v>210100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>72400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>44700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>40700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>163800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>36900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>45300</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
         <v>19200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,17 +1109,18 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1102,8 +1136,8 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1111,125 +1145,137 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E21" s="3">
         <v>79500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>27100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>51700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E22" s="3">
         <v>25500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2800</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1242,8 +1288,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1251,8 +1297,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2800</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,17 +1563,20 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1522,8 +1592,8 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1531,43 +1601,49 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,26 +1792,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E41" s="3">
         <v>60100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,8 +1828,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,26 +1866,29 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E43" s="3">
         <v>66300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>57800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>47600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>35800</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,8 +1904,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,26 +1942,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E45" s="3">
         <v>6000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3400</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,26 +1980,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>153500</v>
+      </c>
+      <c r="E46" s="3">
         <v>132400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>95500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>80800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>60400</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,8 +2018,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,26 +2056,29 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>635100</v>
+      </c>
+      <c r="E48" s="3">
         <v>633000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>631500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>650000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>635200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,26 +2094,29 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>330300</v>
+      </c>
+      <c r="E49" s="3">
         <v>339500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>347700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>355800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>364000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,26 +2208,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E52" s="3">
         <v>21800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,26 +2284,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1143100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1126700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1077500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1088800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1062700</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,26 +2356,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E57" s="3">
         <v>7100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2261,8 +2392,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2296,26 +2430,29 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E59" s="3">
         <v>42000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>47900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>39000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>33700</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,26 +2468,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E60" s="3">
         <v>49000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>58000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>49400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>47800</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,26 +2506,29 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>392500</v>
+      </c>
+      <c r="E61" s="3">
         <v>392100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>391600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>391100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>297000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2401,26 +2544,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E62" s="3">
         <v>83100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6800</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,26 +2696,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>931700</v>
+      </c>
+      <c r="E66" s="3">
         <v>913800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>457000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>447400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>351600</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2676,11 +2844,11 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>74400</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,17 +2902,20 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-500</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2757,8 +2931,8 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
+      <c r="K72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
@@ -2766,8 +2940,11 @@
       <c r="M72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,26 +3054,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>211500</v>
+      </c>
+      <c r="E76" s="3">
         <v>212900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>620600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>641300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>636700</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E83" s="3">
         <v>60800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>15400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>15200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>15000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>44000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E89" s="3">
         <v>58800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>26500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>14100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>67800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>16300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>24600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-74700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-139600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-41700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-50900</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-74700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-20400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-139600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-41700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-50900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,13 +3679,14 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-8900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,43 +3829,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E100" s="3">
         <v>51000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>17800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>89700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>19600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>40000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E102" s="3">
         <v>35100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>ARIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>76400</v>
+      </c>
+      <c r="E8" s="3">
         <v>71000</v>
       </c>
-      <c r="E8" s="3">
-        <v>229300</v>
-      </c>
       <c r="F8" s="3">
+        <v>67000</v>
+      </c>
+      <c r="G8" s="3">
         <v>59500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>56600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>46200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>171500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>37600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>46400</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E9" s="3">
         <v>43300</v>
       </c>
-      <c r="E9" s="3">
-        <v>151700</v>
-      </c>
       <c r="F9" s="3">
+        <v>39400</v>
+      </c>
+      <c r="G9" s="3">
         <v>38900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>37700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>35700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>139500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>30500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>38800</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E10" s="3">
         <v>27800</v>
       </c>
-      <c r="E10" s="3">
-        <v>77600</v>
-      </c>
       <c r="F10" s="3">
+        <v>27600</v>
+      </c>
+      <c r="G10" s="3">
         <v>20600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>32000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7600</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,46 +946,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E14" s="3">
         <v>15600</v>
       </c>
-      <c r="E14" s="3">
-        <v>28500</v>
-      </c>
       <c r="F14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G14" s="3">
         <v>27400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E17" s="3">
         <v>70600</v>
       </c>
-      <c r="E17" s="3">
-        <v>210100</v>
-      </c>
       <c r="F17" s="3">
+        <v>52600</v>
+      </c>
+      <c r="G17" s="3">
         <v>72400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>44700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>40700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>163800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>36900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>45300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
-        <v>19200</v>
-      </c>
       <c r="F18" s="3">
+        <v>14400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-12900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1119,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1139,8 +1173,8 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1148,137 +1182,149 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E21" s="3">
         <v>16900</v>
       </c>
-      <c r="E21" s="3">
-        <v>79500</v>
-      </c>
       <c r="F21" s="3">
+        <v>29600</v>
+      </c>
+      <c r="G21" s="3">
         <v>2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>27100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>20400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>51700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E22" s="3">
         <v>7800</v>
       </c>
-      <c r="E22" s="3">
-        <v>25500</v>
-      </c>
       <c r="F22" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G22" s="3">
         <v>7900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1600</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7500</v>
       </c>
-      <c r="E23" s="3">
-        <v>-6700</v>
-      </c>
       <c r="F23" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-20800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2800</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-800</v>
       </c>
-      <c r="E24" s="3">
-        <v>300</v>
-      </c>
       <c r="F24" s="3">
+        <v>400</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1291,8 +1337,8 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6600</v>
       </c>
-      <c r="E26" s="3">
-        <v>-7000</v>
-      </c>
       <c r="F26" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-20700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2800</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-7000</v>
-      </c>
       <c r="F27" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-20700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1575,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1595,8 +1665,8 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1604,46 +1674,52 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-7000</v>
-      </c>
       <c r="F33" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-20700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-7000</v>
-      </c>
       <c r="F35" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-20700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,29 +1879,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E41" s="3">
         <v>67800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>60100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,29 +1959,32 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E43" s="3">
         <v>73100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>66300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>57800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>47600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>35800</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,29 +2041,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E45" s="3">
         <v>12600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,29 +2082,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>135400</v>
+      </c>
+      <c r="E46" s="3">
         <v>153500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>132400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>95500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>80800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>60400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,29 +2164,32 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>675600</v>
+      </c>
+      <c r="E48" s="3">
         <v>635100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>633000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>631500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>650000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>635200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,29 +2205,32 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>321100</v>
+      </c>
+      <c r="E49" s="3">
         <v>330300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>339500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>347700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>355800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>364000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,29 +2328,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E52" s="3">
         <v>24100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,29 +2410,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1156100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1143100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1126700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1077500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1088800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1062700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2366,20 +2497,20 @@
         <v>19300</v>
       </c>
       <c r="E57" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F57" s="3">
         <v>7100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,8 +2526,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,29 +2567,32 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E59" s="3">
         <v>47900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>42000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>47900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>33700</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,29 +2608,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E60" s="3">
         <v>67200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>49000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>58000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>49400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>47800</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,29 +2649,32 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>393000</v>
+      </c>
+      <c r="E61" s="3">
         <v>392500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>392100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>391600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>391100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>297000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2547,29 +2690,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>91200</v>
+      </c>
+      <c r="E62" s="3">
         <v>90000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>83100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6800</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,29 +2854,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>943300</v>
+      </c>
+      <c r="E66" s="3">
         <v>931700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>913800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>457000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>447400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>351600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2847,11 +3015,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>74400</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,20 +3076,23 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-500</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2934,8 +3108,8 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
+      <c r="L72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,29 +3240,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>212800</v>
+      </c>
+      <c r="E76" s="3">
         <v>211500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>212900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>620600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>641300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>636700</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-7000</v>
-      </c>
       <c r="F81" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-20700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E83" s="3">
         <v>16600</v>
       </c>
-      <c r="E83" s="3">
-        <v>60800</v>
-      </c>
       <c r="F83" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G83" s="3">
         <v>15400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>15200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>15000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>44000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E89" s="3">
         <v>26400</v>
       </c>
-      <c r="E89" s="3">
-        <v>58800</v>
-      </c>
       <c r="F89" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G89" s="3">
         <v>26500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>14100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>67800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>16300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24600</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9800</v>
       </c>
-      <c r="E91" s="3">
-        <v>-74700</v>
-      </c>
       <c r="F91" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="G91" s="3">
         <v>-20400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-139600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-41700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-50900</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9800</v>
       </c>
-      <c r="E94" s="3">
-        <v>-74700</v>
-      </c>
       <c r="F94" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="G94" s="3">
         <v>-20400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-20300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-139600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-41700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-50900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,17 +3913,18 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-8900</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8900</v>
       </c>
-      <c r="E100" s="3">
-        <v>51000</v>
-      </c>
       <c r="F100" s="3">
+        <v>34000</v>
+      </c>
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>17800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>89700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>19600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>40000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E102" s="3">
         <v>7700</v>
       </c>
-      <c r="E102" s="3">
-        <v>35100</v>
-      </c>
       <c r="F102" s="3">
+        <v>23700</v>
+      </c>
+      <c r="G102" s="3">
         <v>5300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
   <si>
     <t>ARIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>90800</v>
+      </c>
+      <c r="E8" s="3">
         <v>76400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>71000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>67000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>59500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>56600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>46200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>171500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>46400</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E9" s="3">
         <v>47000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>43300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>39400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>38900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>37700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>35700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>139500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>30500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>38800</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E10" s="3">
         <v>29400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>27800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>27600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>18900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>32000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7600</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,49 +966,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E14" s="3">
         <v>5400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>15600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>27400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2400</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E17" s="3">
         <v>64600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>70600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>52600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>72400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>44700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>40700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>163800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>45300</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E18" s="3">
         <v>11800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1176,8 +1210,8 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1185,149 +1219,161 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E21" s="3">
         <v>28000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>16900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>27100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>20400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>51700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E22" s="3">
         <v>7300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1600</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>4500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2800</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1340,8 +1386,8 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-20700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2800</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>700</v>
+      </c>
+      <c r="E27" s="3">
         <v>1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1668,8 +1738,8 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1677,49 +1747,55 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>700</v>
+      </c>
+      <c r="E33" s="3">
         <v>1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>700</v>
+      </c>
+      <c r="E35" s="3">
         <v>1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,32 +1966,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E41" s="3">
         <v>35100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>67800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>60100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>36400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>31100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,32 +2052,35 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>108300</v>
+      </c>
+      <c r="E43" s="3">
         <v>88100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>73100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>66300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>57800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>47600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>35800</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,32 +2140,35 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>12200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,32 +2184,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>135300</v>
+      </c>
+      <c r="E46" s="3">
         <v>135400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>153500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>132400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>95500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>80800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>60400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,32 +2272,35 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>807600</v>
+      </c>
+      <c r="E48" s="3">
         <v>675600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>635100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>633000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>631500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>650000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>635200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,32 +2316,35 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E49" s="3">
         <v>321100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>330300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>339500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>347700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>355800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>364000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,32 +2448,35 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E52" s="3">
         <v>24000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>24100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,32 +2536,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1280700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1156100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1143100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1126700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1077500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1088800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1062700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,32 +2618,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19300</v>
+        <v>35800</v>
       </c>
       <c r="E57" s="3">
         <v>19300</v>
       </c>
       <c r="F57" s="3">
+        <v>19300</v>
+      </c>
+      <c r="G57" s="3">
         <v>7100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,32 +2704,35 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>87500</v>
+      </c>
+      <c r="E59" s="3">
         <v>57600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>47900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>47900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>39000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>33700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,32 +2748,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>123300</v>
+      </c>
+      <c r="E60" s="3">
         <v>76900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>67200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>49000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>58000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>49400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>47800</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,32 +2792,35 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>393500</v>
+      </c>
+      <c r="E61" s="3">
         <v>393000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>392500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>392100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>391600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>391100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>297000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2693,32 +2836,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>97100</v>
+      </c>
+      <c r="E62" s="3">
         <v>91200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>90000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>83100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,32 +3012,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1004500</v>
+      </c>
+      <c r="E66" s="3">
         <v>943300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>931700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>913800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>457000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>447400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>351600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3018,11 +3186,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>74400</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,23 +3250,26 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-500</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3111,8 +3285,8 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,32 +3426,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>276300</v>
+      </c>
+      <c r="E76" s="3">
         <v>212800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>211500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>212900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>620600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>641300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>636700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>700</v>
+      </c>
+      <c r="E81" s="3">
         <v>1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E83" s="3">
         <v>16200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>15200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>15400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>15200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>15000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>44000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E89" s="3">
         <v>10900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>26400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>26500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>14100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>16600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>67800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>24600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-38500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-22000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-139600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-41700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-50900</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-38500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-20300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-139600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-41700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-50900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,20 +4147,21 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-5000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-8900</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>34000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>17800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>89700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>19600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>40000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-32600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>23700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>17800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARIS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E8" s="3">
         <v>90800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>76400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>71000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>67000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>59500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>56600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>46200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>171500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>37600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>46400</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E9" s="3">
         <v>60800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>47000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>43300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>39400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>38900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>37700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>35700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>139500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>30500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>38800</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E10" s="3">
         <v>30000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>29400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>27800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>27600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>18900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7600</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,13 +893,14 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>700</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>3</v>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +985,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E14" s="3">
         <v>9200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>15600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>27400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E17" s="3">
         <v>81800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>64600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>70600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>52600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>72400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>44700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>40700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>163800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>45300</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E18" s="3">
         <v>9000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1213,8 +1246,8 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1222,161 +1255,173 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E21" s="3">
         <v>25900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>16900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>27100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>51700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E22" s="3">
         <v>6800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1600</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2800</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1389,8 +1434,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E26" s="3">
         <v>2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2800</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1741,8 +1810,8 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1750,52 +1819,58 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2052,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>25200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>35100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>67800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>60100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>36400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>31100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,8 +2097,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,35 +2144,38 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>132100</v>
+      </c>
+      <c r="E43" s="3">
         <v>108300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>88100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>73100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>66300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>57800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>47600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>35800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,35 +2238,38 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,35 +2285,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E46" s="3">
         <v>135300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>135400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>153500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>132400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>95500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>80800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>60400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,8 +2332,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,35 +2379,38 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>828200</v>
+      </c>
+      <c r="E48" s="3">
         <v>807600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>675600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>635100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>633000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>631500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>650000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>635200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,35 +2426,38 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>304400</v>
+      </c>
+      <c r="E49" s="3">
         <v>312000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>321100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>330300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>339500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>347700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>355800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>364000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,35 +2567,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E52" s="3">
         <v>25800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>24000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>24100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2661,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1303400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1280700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1156100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1143100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1126700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1077500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1088800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1062700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,35 +2748,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E57" s="3">
         <v>35800</v>
-      </c>
-      <c r="E57" s="3">
-        <v>19300</v>
       </c>
       <c r="F57" s="3">
         <v>19300</v>
       </c>
       <c r="G57" s="3">
+        <v>19300</v>
+      </c>
+      <c r="H57" s="3">
         <v>7100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,8 +2793,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,35 +2840,38 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E59" s="3">
         <v>87500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>57600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>47900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>42000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>47900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>39000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>33700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,35 +2887,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>91400</v>
+      </c>
+      <c r="E60" s="3">
         <v>123300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>76900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>67200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>49000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>58000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>49400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>47800</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,35 +2934,38 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>428900</v>
+      </c>
+      <c r="E61" s="3">
         <v>393500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>393000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>392500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>392100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>391600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>391100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>297000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2839,35 +2981,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>125900</v>
+      </c>
+      <c r="E62" s="3">
         <v>97100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>91200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>90000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>83100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3169,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>993900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1004500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>943300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>931700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>913800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>457000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>447400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>351600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3189,11 +3356,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>74400</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,26 +3423,29 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3288,8 +3461,8 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,35 +3611,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>309500</v>
+      </c>
+      <c r="E76" s="3">
         <v>276300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>212800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>211500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>212900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>620600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>641300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>636700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E83" s="3">
         <v>16900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>15200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>15400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>15200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>15000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>44000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E89" s="3">
         <v>39900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>26400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>26500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>14100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>16600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>67800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>24600</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-48700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-38500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-22000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-139600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-41700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-50900</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-44600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-38500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-20400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-22000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-20300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-139600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-41700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-50900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4157,14 +4390,14 @@
         <v>-5300</v>
       </c>
       <c r="E96" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-5000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-8900</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>34000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>17800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>89700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>19600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>40000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-32600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>23700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13700</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARIS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E8" s="3">
         <v>82900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>90800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>76400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>71000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>67000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>59500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>56600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>46200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>171500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>37600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>46400</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E9" s="3">
         <v>55900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>60800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>47000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>43300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>39400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>38900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>37700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>35700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>139500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>30500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>38800</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E10" s="3">
         <v>27000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>30000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>29400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>27800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>27600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>18900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7600</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,17 +907,18 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,55 +1005,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>15600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>27400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2400</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E17" s="3">
         <v>69500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>81800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>64600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>70600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>52600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>72400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>44700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>40700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>163800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>36900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>45300</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E18" s="3">
         <v>13400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1249,8 +1283,8 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1258,173 +1292,185 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E21" s="3">
         <v>31100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>25900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>16900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>29600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>27100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>51700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E22" s="3">
         <v>7300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1600</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2800</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1437,8 +1483,8 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E26" s="3">
         <v>5400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2800</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E27" s="3">
         <v>1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1813,8 +1883,8 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1822,55 +1892,61 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E33" s="3">
         <v>1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E35" s="3">
         <v>1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,38 +2139,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>25200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>67800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>60100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>36400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>31100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,38 +2237,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E43" s="3">
         <v>132100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>108300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>88100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>73100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>66300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>57800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>47600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>35800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,38 +2337,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E45" s="3">
         <v>5800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3400</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,38 +2387,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>135800</v>
+      </c>
+      <c r="E46" s="3">
         <v>139000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>135300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>135400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>153500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>132400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>95500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>80800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>60400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,38 +2487,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>867100</v>
+      </c>
+      <c r="E48" s="3">
         <v>828200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>807600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>675600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>635100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>633000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>631500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>650000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>635200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,38 +2537,41 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>295000</v>
+      </c>
+      <c r="E49" s="3">
         <v>304400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>312000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>321100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>330300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>339500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>347700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>355800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>364000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,38 +2687,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E52" s="3">
         <v>31700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>24000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>24100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>21800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,38 +2787,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1328200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1303400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1280700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1156100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1143100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1126700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1077500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1088800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1062700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,38 +2879,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E57" s="3">
         <v>23000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>35800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>19300</v>
       </c>
       <c r="G57" s="3">
         <v>19300</v>
       </c>
       <c r="H57" s="3">
+        <v>19300</v>
+      </c>
+      <c r="I57" s="3">
         <v>7100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,38 +2977,41 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E59" s="3">
         <v>68400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>87500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>57600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>47900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>42000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>47900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>39000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>33700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,38 +3027,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>105500</v>
+      </c>
+      <c r="E60" s="3">
         <v>91400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>123300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>76900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>67200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>49000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>58000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>49400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>47800</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,38 +3077,41 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>435400</v>
+      </c>
+      <c r="E61" s="3">
         <v>428900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>393500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>393000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>392500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>392100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>391600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>391100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>297000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2984,38 +3127,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>126100</v>
+      </c>
+      <c r="E62" s="3">
         <v>125900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>97100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>91200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>90000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>83100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,38 +3327,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1016200</v>
+      </c>
+      <c r="E66" s="3">
         <v>993900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1004500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>943300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>931700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>913800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>457000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>447400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>351600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3359,11 +3527,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>74400</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,29 +3597,32 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3464,8 +3638,8 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,38 +3797,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>312100</v>
+      </c>
+      <c r="E76" s="3">
         <v>309500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>276300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>212800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>211500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>212900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>620600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>641300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>636700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E81" s="3">
         <v>1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E83" s="3">
         <v>17800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>15200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>15400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>15200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>44000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9500</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>39900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>26400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>26500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>14100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>67800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>24600</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-49500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-48700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-38500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-22000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-139600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-41700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-50900</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-44000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-44600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-38500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-20400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-139600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-41700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-50900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,26 +4614,27 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="E96" s="3">
         <v>-5300</v>
       </c>
       <c r="F96" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G96" s="3">
         <v>-5000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-8900</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>26900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>34000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>17800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>89700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>19600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>40000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-24100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-32600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>23700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13700</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARIS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E8" s="3">
         <v>91600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>82900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>90800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>76400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>71000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>67000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>59500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>56600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>46200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>171500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>37600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>46400</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E9" s="3">
         <v>62500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>55900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>60800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>47000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>43300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>39400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>38900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>35700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>139500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>30500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>38800</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E10" s="3">
         <v>29100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>27000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>30000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>29400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>27800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>27600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7600</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,20 +921,21 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>15600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>27400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2400</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E17" s="3">
         <v>74900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>69500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>81800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>64600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>70600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>52600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>72400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>44700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>40700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>163800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>36900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>45300</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E18" s="3">
         <v>16700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1286,8 +1320,8 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1295,185 +1329,197 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E21" s="3">
         <v>35300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>31100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>25900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>28000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>16900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>29600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>27100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>51700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E22" s="3">
         <v>7700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1600</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E23" s="3">
         <v>9000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2800</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1486,8 +1532,8 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E26" s="3">
         <v>7700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2800</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E27" s="3">
         <v>3400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1886,8 +1956,8 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E33" s="3">
         <v>3400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E35" s="3">
         <v>3400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,41 +2226,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E41" s="3">
         <v>25500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>25200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>35100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>67800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>60100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>36400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>31100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,41 +2330,44 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E43" s="3">
         <v>105700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>132100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>108300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>88100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>73100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>66300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>57800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>47600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>35800</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,41 +2436,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2390,41 +2489,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>129100</v>
+      </c>
+      <c r="E46" s="3">
         <v>135800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>139000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>135300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>135400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>153500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>132400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>95500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>80800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>60400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,41 +2595,44 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>889400</v>
+      </c>
+      <c r="E48" s="3">
         <v>867100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>828200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>807600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>675600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>635100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>633000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>631500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>650000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>635200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2540,41 +2648,44 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>285500</v>
+      </c>
+      <c r="E49" s="3">
         <v>295000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>304400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>312000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>321100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>330300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>339500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>347700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>355800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>364000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,41 +2807,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E52" s="3">
         <v>30300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>31700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>24000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>24100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>21800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,41 +2913,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1332700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1328200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1303400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1280700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1156100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1143100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1126700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1077500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1088800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1062700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,41 +3010,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E57" s="3">
         <v>27700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>35800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>19300</v>
       </c>
       <c r="H57" s="3">
         <v>19300</v>
       </c>
       <c r="I57" s="3">
+        <v>19300</v>
+      </c>
+      <c r="J57" s="3">
         <v>7100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,41 +3114,44 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E59" s="3">
         <v>77800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>68400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>87500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>57600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>47900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>42000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>47900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>39000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>33700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,41 +3167,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>112900</v>
+      </c>
+      <c r="E60" s="3">
         <v>105500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>91400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>123300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>76900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>67200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>49000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>58000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>49400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>47800</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,41 +3220,44 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>423900</v>
+      </c>
+      <c r="E61" s="3">
         <v>435400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>428900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>393500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>393000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>392500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>392100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>391600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>391100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>297000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3130,41 +3273,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>126600</v>
+      </c>
+      <c r="E62" s="3">
         <v>126100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>125900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>97100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>91200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>90000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>83100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,41 +3485,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1017100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1016200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>993900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1004500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>943300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>931700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>913800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>457000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>447400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>351600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3530,11 +3698,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>74400</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,32 +3771,35 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3641,8 +3815,8 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,41 +3983,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>315600</v>
+      </c>
+      <c r="E76" s="3">
         <v>312100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>309500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>276300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>212800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>211500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>212900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>620600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>641300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>636700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E81" s="3">
         <v>3400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E83" s="3">
         <v>18600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>17800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>15200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>15400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>44000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E89" s="3">
         <v>59700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>39900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>26400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>26500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>67800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>24600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-35300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-49500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-48700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-38500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-139600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-41700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-50900</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-44000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-44600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-38500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-20400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-20300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-139600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-41700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-50900</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4624,20 +4858,20 @@
         <v>-5400</v>
       </c>
       <c r="E96" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="F96" s="3">
         <v>-5300</v>
       </c>
       <c r="G96" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="H96" s="3">
         <v>-5000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-8900</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-17400</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>26900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>34000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>17800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>89700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>19600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>40000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E102" s="3">
         <v>24400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-24100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-32600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>23700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13700</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARIS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>99800</v>
+      </c>
+      <c r="E8" s="3">
         <v>96600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>91600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>82900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>90800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>76400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>71000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>67000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>59500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>56600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>46200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>171500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>37600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>46400</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E9" s="3">
         <v>63500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>62500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>55900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>60800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>47000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>43300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>39400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>38900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>37700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>35700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>139500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>30500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>38800</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E10" s="3">
         <v>33100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>29100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>27000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>30000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>29400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>27800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>27600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>32000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7600</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,23 +935,24 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>15600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>27400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2400</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E17" s="3">
         <v>76700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>74900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>69500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>81800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>64600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>70600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>52600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>72400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>44700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>40700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>163800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>36900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>45300</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E18" s="3">
         <v>19900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>16700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1100</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1323,8 +1357,8 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1332,61 +1366,67 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E21" s="3">
         <v>39000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>35300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>31100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>25900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>28000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>16900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>29600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>27100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>51700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,135 +1434,141 @@
         <v>8000</v>
       </c>
       <c r="E22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F22" s="3">
         <v>7700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1600</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E23" s="3">
         <v>12000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2800</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1535,8 +1581,8 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E26" s="3">
         <v>10400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2800</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E27" s="3">
         <v>4700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1959,8 +2029,8 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E33" s="3">
         <v>4700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E35" s="3">
         <v>4700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,44 +2313,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E41" s="3">
         <v>4000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>25500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>25200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>35100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>67800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>60100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>36400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>31100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,44 +2423,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>99200</v>
+      </c>
+      <c r="E43" s="3">
         <v>103000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>105700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>132100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>108300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>88100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>73100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>66300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>57800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>47600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>35800</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,44 +2535,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
         <v>22000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,44 +2591,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>125600</v>
+      </c>
+      <c r="E46" s="3">
         <v>129100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>135800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>139000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>135300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>135400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>153500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>132400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>95500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>80800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>60400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,44 +2703,47 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>926100</v>
+      </c>
+      <c r="E48" s="3">
         <v>889400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>867100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>828200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>807600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>675600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>635100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>633000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>631500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>650000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>635200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,44 +2759,47 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>276100</v>
+      </c>
+      <c r="E49" s="3">
         <v>285500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>295000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>304400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>312000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>321100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>330300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>339500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>347700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>355800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>364000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,44 +2927,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E52" s="3">
         <v>28700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>31700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>24000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>24100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>21800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,44 +3039,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1354500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1332700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1328200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1303400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1280700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1156100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1143100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1126700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1077500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1088800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1062700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,44 +3141,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E57" s="3">
         <v>36700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>23000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>35800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>19300</v>
       </c>
       <c r="I57" s="3">
         <v>19300</v>
       </c>
       <c r="J57" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K57" s="3">
         <v>7100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,44 +3251,47 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>82400</v>
+      </c>
+      <c r="E59" s="3">
         <v>76100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>77800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>68400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>87500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>57600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>47900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>42000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>47900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>39000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>33700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,44 +3307,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>113300</v>
+      </c>
+      <c r="E60" s="3">
         <v>112900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>105500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>91400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>123300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>76900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>67200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>49000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>58000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>49400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>47800</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,44 +3363,47 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>429300</v>
+      </c>
+      <c r="E61" s="3">
         <v>423900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>435400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>428900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>393500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>393000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>392500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>392100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>391600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>391100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>297000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3276,44 +3419,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>133100</v>
+      </c>
+      <c r="E62" s="3">
         <v>126600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>126100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>125900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>97100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>91200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>90000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>83100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,44 +3643,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1035200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1017100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1016200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>993900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1004500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>943300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>931700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>913800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>457000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>447400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>351600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3701,11 +3869,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>74400</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,35 +3945,38 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-500</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3818,8 +3992,8 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R72" s="3">
         <v>0</v>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,44 +4169,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>319300</v>
+      </c>
+      <c r="E76" s="3">
         <v>315600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>312100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>309500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>276300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>212800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>211500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>212900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>620600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>641300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>636700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E81" s="3">
         <v>4700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E83" s="3">
         <v>19100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>18600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>17800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>15200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>44000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9500</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E89" s="3">
         <v>36800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>59700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>39900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>26400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>67800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>24600</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-53900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-42700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-35300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-49500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-48700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-38500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-139600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-41700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-50900</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-40900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-44000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-44600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-38500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-20300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-139600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-41700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-50900</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,32 +5082,33 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="E96" s="3">
         <v>-5400</v>
       </c>
       <c r="F96" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="G96" s="3">
         <v>-5300</v>
       </c>
       <c r="H96" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="I96" s="3">
         <v>-5000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-8900</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-17400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>26900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>34000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>17800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>89700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>19600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>40000</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>24400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-24100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-32600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>23700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13700</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
